--- a/testing/vkplay.ru/Баг-репорт.xlsx
+++ b/testing/vkplay.ru/Баг-репорт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Pre-Conditions</t>
-  </si>
-  <si>
-    <t>Steps to Reproduse</t>
   </si>
   <si>
     <t>Expected Result</t>
@@ -51,10 +48,28 @@
 4.Выбрать из списка  Kick The Buddy 3D</t>
   </si>
   <si>
-    <t>На открывшейся странице призутствует ролик игры</t>
-  </si>
-  <si>
     <t>Вместо ролика отображается фон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Боковая панель перемещается </t>
+  </si>
+  <si>
+    <t>Увеличить страницу до 250%</t>
+  </si>
+  <si>
+    <t>На открывшейся странице присутствует ролик игры</t>
+  </si>
+  <si>
+    <t>Steps to Reproduсe</t>
+  </si>
+  <si>
+    <t>IMG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не открывается изображение в чате техподдержки </t>
+  </si>
+  <si>
+    <t>Чат закрывает значек "Троеточие"</t>
   </si>
 </sst>
 </file>
@@ -99,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,6 +130,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -397,17 +418,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
@@ -425,16 +446,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -442,18 +463,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
